--- a/输出/rho_matrix_2.xlsx
+++ b/输出/rho_matrix_2.xlsx
@@ -15,7 +15,79 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+  <si>
+    <t>Col_1</t>
+  </si>
+  <si>
+    <t>Col_2</t>
+  </si>
+  <si>
+    <t>Col_3</t>
+  </si>
+  <si>
+    <t>Col_4</t>
+  </si>
+  <si>
+    <t>Col_1</t>
+  </si>
+  <si>
+    <t>Col_2</t>
+  </si>
+  <si>
+    <t>Col_3</t>
+  </si>
+  <si>
+    <t>Col_4</t>
+  </si>
+  <si>
+    <t>Col_1</t>
+  </si>
+  <si>
+    <t>Col_2</t>
+  </si>
+  <si>
+    <t>Col_3</t>
+  </si>
+  <si>
+    <t>Col_4</t>
+  </si>
+  <si>
+    <t>Col_1</t>
+  </si>
+  <si>
+    <t>Col_2</t>
+  </si>
+  <si>
+    <t>Col_3</t>
+  </si>
+  <si>
+    <t>Col_4</t>
+  </si>
+  <si>
+    <t>Col_1</t>
+  </si>
+  <si>
+    <t>Col_2</t>
+  </si>
+  <si>
+    <t>Col_3</t>
+  </si>
+  <si>
+    <t>Col_4</t>
+  </si>
+  <si>
+    <t>Col_1</t>
+  </si>
+  <si>
+    <t>Col_2</t>
+  </si>
+  <si>
+    <t>Col_3</t>
+  </si>
+  <si>
+    <t>Col_4</t>
+  </si>
   <si>
     <t>Col_1</t>
   </si>
@@ -59,7 +131,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -69,14 +141,26 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -91,78 +175,78 @@
   <cols>
     <col min="1" max="1" width="14.37890625" customWidth="true"/>
     <col min="2" max="2" width="14.37890625" customWidth="true"/>
-    <col min="3" max="3" width="14.37890625" customWidth="true"/>
-    <col min="4" max="4" width="13.7109375" customWidth="true"/>
+    <col min="3" max="3" width="13.7109375" customWidth="true"/>
+    <col min="4" max="4" width="14.37890625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.47163937832537256</v>
+        <v>0.46042035403031772</v>
       </c>
       <c r="B2" s="0">
-        <v>0.06840164276351042</v>
+        <v>-0.085916863406279562</v>
       </c>
       <c r="C2" s="0">
-        <v>-0.084376885356456557</v>
+        <v>-0.061802680197842332</v>
       </c>
       <c r="D2" s="0">
-        <v>-0.46348097248916054</v>
+        <v>0.46508596880228659</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.06840164276351042</v>
+        <v>-0.085916863406279562</v>
       </c>
       <c r="B3" s="0">
-        <v>0.015500473870638616</v>
+        <v>0.018898464399660642</v>
       </c>
       <c r="C3" s="0">
-        <v>-0.021995724144317077</v>
+        <v>0.011084561538099245</v>
       </c>
       <c r="D3" s="0">
-        <v>-0.071601944296189032</v>
+        <v>-0.084106167197601764</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.084376885356456557</v>
+        <v>-0.061802680197842332</v>
       </c>
       <c r="B4" s="0">
-        <v>-0.021995724144317077</v>
+        <v>0.011084561538099245</v>
       </c>
       <c r="C4" s="0">
-        <v>0.038544604978444696</v>
+        <v>0.025055700941392683</v>
       </c>
       <c r="D4" s="0">
-        <v>0.09772335572248228</v>
+        <v>-0.081643390311806327</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.46348097248916054</v>
+        <v>0.46508596880228659</v>
       </c>
       <c r="B5" s="0">
-        <v>-0.071601944296189032</v>
+        <v>-0.084106167197601764</v>
       </c>
       <c r="C5" s="0">
-        <v>0.09772335572248228</v>
+        <v>-0.081643390311806327</v>
       </c>
       <c r="D5" s="0">
-        <v>0.47431554282554422</v>
+        <v>0.4956254806286291</v>
       </c>
     </row>
   </sheetData>
@@ -175,23 +259,23 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.37890625" customWidth="true"/>
-    <col min="2" max="2" width="14.7109375" customWidth="true"/>
-    <col min="3" max="3" width="15.37890625" customWidth="true"/>
-    <col min="4" max="4" width="14.37890625" customWidth="true"/>
+    <col min="2" max="2" width="15.7109375" customWidth="true"/>
+    <col min="3" max="3" width="16.37890625" customWidth="true"/>
+    <col min="4" max="4" width="15.37890625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2">
@@ -199,52 +283,52 @@
         <v>0</v>
       </c>
       <c r="B2" s="0">
-        <v>-0.023116929159038541</v>
+        <v>0.027654616982508828</v>
       </c>
       <c r="C2" s="0">
-        <v>0.038931214485154658</v>
+        <v>0.032032017911913013</v>
       </c>
       <c r="D2" s="0">
-        <v>-0.036307076124421356</v>
+        <v>-0.0083412083010344831</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.023116929159038541</v>
+        <v>-0.027654616982508828</v>
       </c>
       <c r="B3" s="0">
         <v>0</v>
       </c>
       <c r="C3" s="0">
-        <v>-0.0038152094734585783</v>
+        <v>-0.00059088180052834427</v>
       </c>
       <c r="D3" s="0">
-        <v>-0.033764027433911846</v>
+        <v>-0.029128318513523155</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.038931214485154658</v>
+        <v>-0.032032017911913013</v>
       </c>
       <c r="B4" s="0">
-        <v>0.0038152094734585783</v>
+        <v>0.00059088180052834427</v>
       </c>
       <c r="C4" s="0">
         <v>0</v>
       </c>
       <c r="D4" s="0">
-        <v>0.047578178424971328</v>
+        <v>-0.027118742246401414</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.036307076124421356</v>
+        <v>0.0083412083010344831</v>
       </c>
       <c r="B5" s="0">
-        <v>0.033764027433911846</v>
+        <v>0.029128318513523155</v>
       </c>
       <c r="C5" s="0">
-        <v>-0.047578178424971328</v>
+        <v>0.027118742246401414</v>
       </c>
       <c r="D5" s="0">
         <v>0</v>
